--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H2">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I2">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J2">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P2">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q2">
-        <v>0.1520328210397778</v>
+        <v>0.3614641371019999</v>
       </c>
       <c r="R2">
-        <v>1.368295389358</v>
+        <v>3.253177233918</v>
       </c>
       <c r="S2">
-        <v>2.082561851680382E-05</v>
+        <v>4.919606019646516E-05</v>
       </c>
       <c r="T2">
-        <v>2.082561851680382E-05</v>
+        <v>4.919606019646515E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H3">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I3">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J3">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N3">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q3">
-        <v>2.535675560912222</v>
+        <v>2.411181444901999</v>
       </c>
       <c r="R3">
-        <v>22.82108004821</v>
+        <v>21.700633004118</v>
       </c>
       <c r="S3">
-        <v>0.0003473395517677337</v>
+        <v>0.0003281670720061659</v>
       </c>
       <c r="T3">
-        <v>0.0003473395517677337</v>
+        <v>0.0003281670720061658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H4">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I4">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J4">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N4">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O4">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P4">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q4">
-        <v>111.5630914129233</v>
+        <v>234.71206104609</v>
       </c>
       <c r="R4">
-        <v>1004.06782271631</v>
+        <v>2112.408549414809</v>
       </c>
       <c r="S4">
-        <v>0.01528203164573897</v>
+        <v>0.0319448252228726</v>
       </c>
       <c r="T4">
-        <v>0.01528203164573897</v>
+        <v>0.03194482522287259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H5">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I5">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J5">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N5">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O5">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P5">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q5">
-        <v>0.6587478956117778</v>
+        <v>3.754364261885999</v>
       </c>
       <c r="R5">
-        <v>5.928731060506</v>
+        <v>33.78927835697399</v>
       </c>
       <c r="S5">
-        <v>9.023599166898839E-05</v>
+        <v>0.0005109771932231315</v>
       </c>
       <c r="T5">
-        <v>9.02359916689884E-05</v>
+        <v>0.0005109771932231313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I6">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J6">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P6">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q6">
         <v>6.536644773472555</v>
@@ -827,10 +827,10 @@
         <v>58.829802961253</v>
       </c>
       <c r="S6">
-        <v>0.0008953965959533308</v>
+        <v>0.0008896516604299276</v>
       </c>
       <c r="T6">
-        <v>0.0008953965959533308</v>
+        <v>0.0008896516604299274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I7">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J7">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N7">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q7">
-        <v>109.0212645473595</v>
+        <v>43.60332041810589</v>
       </c>
       <c r="R7">
-        <v>981.1913809262351</v>
+        <v>392.429883762953</v>
       </c>
       <c r="S7">
-        <v>0.01493384948167752</v>
+        <v>0.005934507343530948</v>
       </c>
       <c r="T7">
-        <v>0.01493384948167752</v>
+        <v>0.005934507343530946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I8">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J8">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N8">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O8">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P8">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q8">
-        <v>4796.650443037732</v>
+        <v>4244.485716919015</v>
       </c>
       <c r="R8">
-        <v>43169.85398733959</v>
+        <v>38200.37145227114</v>
       </c>
       <c r="S8">
-        <v>0.6570503105972482</v>
+        <v>0.5776837959823957</v>
       </c>
       <c r="T8">
-        <v>0.6570503105972482</v>
+        <v>0.5776837959823956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>1609.262329</v>
       </c>
       <c r="I9">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J9">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N9">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O9">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P9">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q9">
-        <v>28.32283818347456</v>
+        <v>67.893168398181</v>
       </c>
       <c r="R9">
-        <v>254.905543651271</v>
+        <v>611.038515583629</v>
       </c>
       <c r="S9">
-        <v>0.003879692682725925</v>
+        <v>0.009240408816831358</v>
       </c>
       <c r="T9">
-        <v>0.003879692682725926</v>
+        <v>0.009240408816831355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H10">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I10">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J10">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.036557</v>
       </c>
       <c r="O10">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P10">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q10">
-        <v>0.3209540377832222</v>
+        <v>0.667978314237</v>
       </c>
       <c r="R10">
-        <v>2.888586340049</v>
+        <v>6.011804828133</v>
       </c>
       <c r="S10">
-        <v>4.396462754941848E-05</v>
+        <v>9.091331057239468E-05</v>
       </c>
       <c r="T10">
-        <v>4.396462754941848E-05</v>
+        <v>9.091331057239468E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H11">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I11">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J11">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N11">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q11">
-        <v>5.353023802472777</v>
+        <v>4.455813873537</v>
       </c>
       <c r="R11">
-        <v>48.177214222255</v>
+        <v>40.102324861833</v>
       </c>
       <c r="S11">
-        <v>0.0007332629287494514</v>
+        <v>0.0006064460206322306</v>
       </c>
       <c r="T11">
-        <v>0.0007332629287494513</v>
+        <v>0.0006064460206322304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H12">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I12">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J12">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N12">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O12">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P12">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q12">
-        <v>235.5190439253116</v>
+        <v>433.743076493415</v>
       </c>
       <c r="R12">
-        <v>2119.671395327805</v>
+        <v>3903.687688440735</v>
       </c>
       <c r="S12">
-        <v>0.03226165066652027</v>
+        <v>0.0590333820446166</v>
       </c>
       <c r="T12">
-        <v>0.03226165066652026</v>
+        <v>0.05903338204461659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H13">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I13">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J13">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N13">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O13">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P13">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q13">
-        <v>1.390672063649222</v>
+        <v>6.937988179941</v>
       </c>
       <c r="R13">
-        <v>12.516048572843</v>
+        <v>62.441893619469</v>
       </c>
       <c r="S13">
-        <v>0.0001904957474409919</v>
+        <v>0.0009442753764709586</v>
       </c>
       <c r="T13">
-        <v>0.0001904957474409919</v>
+        <v>0.0009442753764709584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H14">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I14">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J14">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1311,22 +1311,22 @@
         <v>0.036557</v>
       </c>
       <c r="O14">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P14">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q14">
-        <v>0.5184074852905555</v>
+        <v>0.4066702795886666</v>
       </c>
       <c r="R14">
-        <v>4.665667367615</v>
+        <v>3.660032516298</v>
       </c>
       <c r="S14">
-        <v>7.101201208449586E-05</v>
+        <v>5.534871513162534E-05</v>
       </c>
       <c r="T14">
-        <v>7.101201208449586E-05</v>
+        <v>5.534871513162534E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H15">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I15">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J15">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N15">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q15">
-        <v>8.646246133269443</v>
+        <v>2.712733385388666</v>
       </c>
       <c r="R15">
-        <v>77.816215199425</v>
+        <v>24.414600468498</v>
       </c>
       <c r="S15">
-        <v>0.001184372047709013</v>
+        <v>0.0003692089511134054</v>
       </c>
       <c r="T15">
-        <v>0.001184372047709013</v>
+        <v>0.0003692089511134054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H16">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I16">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J16">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N16">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O16">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P16">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q16">
-        <v>380.4122114887417</v>
+        <v>264.06608482299</v>
       </c>
       <c r="R16">
-        <v>3423.709903398675</v>
+        <v>2376.59476340691</v>
       </c>
       <c r="S16">
-        <v>0.05210927180996949</v>
+        <v>0.03593997210608701</v>
       </c>
       <c r="T16">
-        <v>0.05210927180996949</v>
+        <v>0.03593997210608701</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.54239833333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H17">
-        <v>127.627195</v>
+        <v>100.118514</v>
       </c>
       <c r="I17">
-        <v>0.05367234609877994</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J17">
-        <v>0.05367234609877993</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N17">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O17">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P17">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q17">
-        <v>2.246224451200555</v>
+        <v>4.223899987146</v>
       </c>
       <c r="R17">
-        <v>20.216020060805</v>
+        <v>38.015099884314</v>
       </c>
       <c r="S17">
-        <v>0.0003076902290169341</v>
+        <v>0.000574882033104283</v>
       </c>
       <c r="T17">
-        <v>0.0003076902290169342</v>
+        <v>0.000574882033104283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H18">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I18">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J18">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.036557</v>
       </c>
       <c r="O18">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P18">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q18">
-        <v>1.949091306747555</v>
+        <v>2.499131434157666</v>
       </c>
       <c r="R18">
-        <v>17.541821760728</v>
+        <v>22.492182907419</v>
       </c>
       <c r="S18">
-        <v>0.0002669886129266984</v>
+        <v>0.000340137258040083</v>
       </c>
       <c r="T18">
-        <v>0.0002669886129266984</v>
+        <v>0.0003401372580400829</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H19">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I19">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J19">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N19">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q19">
-        <v>32.50787006848444</v>
+        <v>16.67069765405767</v>
       </c>
       <c r="R19">
-        <v>292.57083061636</v>
+        <v>150.036278886519</v>
       </c>
       <c r="S19">
-        <v>0.004452962828749676</v>
+        <v>0.002268918437888243</v>
       </c>
       <c r="T19">
-        <v>0.004452962828749677</v>
+        <v>0.002268918437888243</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H20">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I20">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J20">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N20">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O20">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P20">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q20">
-        <v>1430.261243195106</v>
+        <v>1622.778664680345</v>
       </c>
       <c r="R20">
-        <v>12872.35118875596</v>
+        <v>14605.0079821231</v>
       </c>
       <c r="S20">
-        <v>0.1959187156196862</v>
+        <v>0.2208637280401224</v>
       </c>
       <c r="T20">
-        <v>0.1959187156196862</v>
+        <v>0.2208637280401223</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>159.9495013333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H21">
-        <v>479.8485039999999</v>
+        <v>615.263367</v>
       </c>
       <c r="I21">
-        <v>0.2017955106015594</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J21">
-        <v>0.2017955106015594</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N21">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O21">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P21">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q21">
-        <v>8.445280353899554</v>
+        <v>25.957346190363</v>
       </c>
       <c r="R21">
-        <v>76.00752318509599</v>
+        <v>233.616115713267</v>
       </c>
       <c r="S21">
-        <v>0.001156843540196846</v>
+        <v>0.003532851629375429</v>
       </c>
       <c r="T21">
-        <v>0.001156843540196846</v>
+        <v>0.003532851629375428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H22">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I22">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J22">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,22 +1807,22 @@
         <v>0.036557</v>
       </c>
       <c r="O22">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P22">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q22">
-        <v>0.1816142173942222</v>
+        <v>0.5372273335322222</v>
       </c>
       <c r="R22">
-        <v>1.634527956548</v>
+        <v>4.835046001789999</v>
       </c>
       <c r="S22">
-        <v>2.487770984457605E-05</v>
+        <v>7.3117815923685E-05</v>
       </c>
       <c r="T22">
-        <v>2.487770984457605E-05</v>
+        <v>7.311781592368499E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H23">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I23">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J23">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N23">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q23">
-        <v>3.029048131917778</v>
+        <v>3.583626825865555</v>
       </c>
       <c r="R23">
-        <v>27.26143318726</v>
+        <v>32.25264143279</v>
       </c>
       <c r="S23">
-        <v>0.0004149222545035339</v>
+        <v>0.0004877394544875688</v>
       </c>
       <c r="T23">
-        <v>0.0004149222545035338</v>
+        <v>0.0004877394544875687</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H24">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I24">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J24">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N24">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O24">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P24">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q24">
-        <v>133.2701938862067</v>
+        <v>348.84161874145</v>
       </c>
       <c r="R24">
-        <v>1199.43174497586</v>
+        <v>3139.57456867305</v>
       </c>
       <c r="S24">
-        <v>0.0182554937713644</v>
+        <v>0.04747810782067699</v>
       </c>
       <c r="T24">
-        <v>0.01825549377136439</v>
+        <v>0.04747810782067698</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.90392133333333</v>
+        <v>44.08682333333334</v>
       </c>
       <c r="H25">
-        <v>44.711764</v>
+        <v>132.26047</v>
       </c>
       <c r="I25">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535908</v>
       </c>
       <c r="J25">
-        <v>0.01880308716410299</v>
+        <v>0.04879840672535907</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N25">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O25">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P25">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q25">
-        <v>0.7869220784262223</v>
+        <v>5.579936968829999</v>
       </c>
       <c r="R25">
-        <v>7.082298705836001</v>
+        <v>50.21943271946999</v>
       </c>
       <c r="S25">
-        <v>0.0001077934283904862</v>
+        <v>0.0007594416342708406</v>
       </c>
       <c r="T25">
-        <v>0.0001077934283904861</v>
+        <v>0.0007594416342708404</v>
       </c>
     </row>
   </sheetData>
